--- a/ModelResults.xlsx
+++ b/ModelResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindgp1\Desktop\UM Bootcamp\Module 20 - Final project\Final-Project-Team-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90550E1-9BD9-4091-BA9D-2AAF9461F33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D2BA06-F880-4F22-933F-D721A3E29B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39255" yWindow="2565" windowWidth="25485" windowHeight="11385" xr2:uid="{061E510B-05AA-44E1-B87A-B493465EE388}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Model</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>SVM</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
   </si>
 </sst>
 </file>
@@ -409,13 +412,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE94B248-0D51-45CC-A7FD-647A713645B2}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -475,6 +481,26 @@
       </c>
       <c r="F3">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0.83</v>
+      </c>
+      <c r="D4">
+        <v>0.38</v>
+      </c>
+      <c r="E4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F4">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/ModelResults.xlsx
+++ b/ModelResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindgp1\Desktop\UM Bootcamp\Module 20 - Final project\Final-Project-Team-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D2BA06-F880-4F22-933F-D721A3E29B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7535544-6162-4153-999F-6D967C3D1046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39255" yWindow="2565" windowWidth="25485" windowHeight="11385" xr2:uid="{061E510B-05AA-44E1-B87A-B493465EE388}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Model</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
   </si>
 </sst>
 </file>
@@ -412,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE94B248-0D51-45CC-A7FD-647A713645B2}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -503,6 +506,26 @@
         <v>0.45</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0.9</v>
+      </c>
+      <c r="D5">
+        <v>0.62</v>
+      </c>
+      <c r="E5">
+        <v>0.51</v>
+      </c>
+      <c r="F5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ModelResults.xlsx
+++ b/ModelResults.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindgp1\Desktop\UM Bootcamp\Module 20 - Final project\Final-Project-Team-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7535544-6162-4153-999F-6D967C3D1046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA93227-E41D-4043-9D04-F20D7EF3ECE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39255" yWindow="2565" windowWidth="25485" windowHeight="11385" xr2:uid="{061E510B-05AA-44E1-B87A-B493465EE388}"/>
+    <workbookView xWindow="39255" yWindow="2565" windowWidth="25485" windowHeight="11385" activeTab="1" xr2:uid="{061E510B-05AA-44E1-B87A-B493465EE388}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Importance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Model</t>
   </si>
@@ -64,6 +65,51 @@
   </si>
   <si>
     <t>Random Forest</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>volatile_acidity</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>total_sulfur_dioxide</t>
+  </si>
+  <si>
+    <t>citric_acid</t>
+  </si>
+  <si>
+    <t>fixed_acidity</t>
+  </si>
+  <si>
+    <t>chlorides</t>
+  </si>
+  <si>
+    <t>residual_sugar</t>
+  </si>
+  <si>
+    <t>sulphates</t>
+  </si>
+  <si>
+    <t>free_sulfur_dioxide</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>Model 4</t>
   </si>
 </sst>
 </file>
@@ -417,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE94B248-0D51-45CC-A7FD-647A713645B2}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -529,4 +575,199 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3496ED4D-A2DB-4AD0-8403-2BDE515D8280}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.24958</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0.169798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>0.13608000000000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0.120064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.114116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>0.112396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>8.7731000000000003E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>9.2388999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>8.1757999999999997E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>8.3002999999999993E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>8.1021999999999997E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>7.9478999999999994E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>7.8950999999999993E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>7.5408000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>4.5753000000000002E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>7.2150000000000006E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>4.5384000000000001E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>7.1892999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>4.0392999999999998E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>6.2758999999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>3.9232000000000003E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>6.0662000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ModelResults.xlsx
+++ b/ModelResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindgp1\Desktop\UM Bootcamp\Module 20 - Final project\Final-Project-Team-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA93227-E41D-4043-9D04-F20D7EF3ECE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21556711-574D-42F1-9E2C-039731A0786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39255" yWindow="2565" windowWidth="25485" windowHeight="11385" activeTab="1" xr2:uid="{061E510B-05AA-44E1-B87A-B493465EE388}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Model</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Model 4</t>
+  </si>
+  <si>
+    <t>Model 5</t>
   </si>
 </sst>
 </file>
@@ -579,27 +582,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3496ED4D-A2DB-4AD0-8403-2BDE515D8280}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -612,8 +621,14 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -626,8 +641,14 @@
       <c r="E3">
         <v>0.169798</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0.30651499999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -640,8 +661,14 @@
       <c r="E4">
         <v>0.120064</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>0.131908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -654,8 +681,14 @@
       <c r="E5">
         <v>0.112396</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>0.12608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -668,8 +701,14 @@
       <c r="E6">
         <v>9.2388999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>0.122331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -682,8 +721,14 @@
       <c r="E7">
         <v>8.3002999999999993E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>9.7373000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -696,8 +741,14 @@
       <c r="E8">
         <v>7.9478999999999994E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>5.4740999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -710,8 +761,14 @@
       <c r="E9">
         <v>7.5408000000000003E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>4.5010000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -724,8 +781,14 @@
       <c r="E10">
         <v>7.2150000000000006E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>4.0503999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -738,8 +801,14 @@
       <c r="E11">
         <v>7.1892999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>3.8263999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -752,8 +821,14 @@
       <c r="E12">
         <v>6.2758999999999995E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>1.8796E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -765,6 +840,12 @@
       </c>
       <c r="E13">
         <v>6.0662000000000001E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>1.848E-2</v>
       </c>
     </row>
   </sheetData>

--- a/ModelResults.xlsx
+++ b/ModelResults.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindgp1\Desktop\UM Bootcamp\Module 20 - Final project\Final-Project-Team-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21556711-574D-42F1-9E2C-039731A0786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597FBB8C-9E55-4F1A-A300-3716568B6ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39255" yWindow="2565" windowWidth="25485" windowHeight="11385" activeTab="1" xr2:uid="{061E510B-05AA-44E1-B87A-B493465EE388}"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
-    <sheet name="Importance" sheetId="2" r:id="rId2"/>
+    <sheet name="Red Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Red Importance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>Model</t>
   </si>
@@ -113,6 +113,27 @@
   </si>
   <si>
     <t>Model 5</t>
+  </si>
+  <si>
+    <t>Gradient Boosted Tree</t>
+  </si>
+  <si>
+    <t>Logisitic-ROS</t>
+  </si>
+  <si>
+    <t>Logistic-SMOTE</t>
+  </si>
+  <si>
+    <t>Logistic-Cluster centroid US</t>
+  </si>
+  <si>
+    <t>Model 9</t>
+  </si>
+  <si>
+    <t>Balanced Random Forest Classifier</t>
+  </si>
+  <si>
+    <t>Easy Ensemble AdaBoos Classifier</t>
   </si>
 </sst>
 </file>
@@ -464,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE94B248-0D51-45CC-A7FD-647A713645B2}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -573,6 +594,126 @@
       </c>
       <c r="F5">
         <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>0.89</v>
+      </c>
+      <c r="D6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E6">
+        <v>0.43</v>
+      </c>
+      <c r="F6">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>0.83</v>
+      </c>
+      <c r="D7">
+        <v>0.35</v>
+      </c>
+      <c r="E7">
+        <v>0.9</v>
+      </c>
+      <c r="F7">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>0.84</v>
+      </c>
+      <c r="D8">
+        <v>0.37</v>
+      </c>
+      <c r="E8">
+        <v>0.92</v>
+      </c>
+      <c r="F8">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>0.82</v>
+      </c>
+      <c r="D9">
+        <v>0.34</v>
+      </c>
+      <c r="E9">
+        <v>0.88</v>
+      </c>
+      <c r="F9">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>0.84</v>
+      </c>
+      <c r="D10">
+        <v>0.36</v>
+      </c>
+      <c r="E10">
+        <v>0.92</v>
+      </c>
+      <c r="F10">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>0.82</v>
+      </c>
+      <c r="D11">
+        <v>0.33</v>
+      </c>
+      <c r="E11">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -582,7 +723,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3496ED4D-A2DB-4AD0-8403-2BDE515D8280}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
@@ -595,9 +736,11 @@
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -607,8 +750,11 @@
       <c r="G1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -627,8 +773,14 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -647,8 +799,14 @@
       <c r="H3">
         <v>0.30651499999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>0.23349900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -667,8 +825,14 @@
       <c r="H4">
         <v>0.131908</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>0.12825700000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -687,8 +851,14 @@
       <c r="H5">
         <v>0.12608</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>0.116748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -707,8 +877,14 @@
       <c r="H6">
         <v>0.122331</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>8.3079E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -727,8 +903,14 @@
       <c r="H7">
         <v>9.7373000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>7.6443999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -747,8 +929,14 @@
       <c r="H8">
         <v>5.4740999999999998E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>7.4452000000000004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -767,8 +955,14 @@
       <c r="H9">
         <v>4.5010000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>7.0033999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -787,8 +981,14 @@
       <c r="H10">
         <v>4.0503999999999998E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>6.7913000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -807,8 +1007,14 @@
       <c r="H11">
         <v>3.8263999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <v>5.3655000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -827,8 +1033,14 @@
       <c r="H12">
         <v>1.8796E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>4.9013000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -846,6 +1058,12 @@
       </c>
       <c r="H13">
         <v>1.848E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>4.6905000000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/ModelResults.xlsx
+++ b/ModelResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindgp1\Desktop\UM Bootcamp\Module 20 - Final project\Final-Project-Team-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597FBB8C-9E55-4F1A-A300-3716568B6ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25BC13A-F771-448F-AABF-9554480C8F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39255" yWindow="2565" windowWidth="25485" windowHeight="11385" activeTab="1" xr2:uid="{061E510B-05AA-44E1-B87A-B493465EE388}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>Model</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Easy Ensemble AdaBoos Classifier</t>
+  </si>
+  <si>
+    <t>mode</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE94B248-0D51-45CC-A7FD-647A713645B2}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,6 +719,11 @@
         <v>0.48</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -726,7 +734,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ModelResults.xlsx
+++ b/ModelResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindgp1\Desktop\UM Bootcamp\Module 20 - Final project\Final-Project-Team-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25BC13A-F771-448F-AABF-9554480C8F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0AF69D-44AF-4F3C-B2A8-F5F374318B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39255" yWindow="2565" windowWidth="25485" windowHeight="11385" activeTab="1" xr2:uid="{061E510B-05AA-44E1-B87A-B493465EE388}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{061E510B-05AA-44E1-B87A-B493465EE388}"/>
   </bookViews>
   <sheets>
     <sheet name="Red Results" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>Model</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>Easy Ensemble AdaBoos Classifier</t>
-  </si>
-  <si>
-    <t>mode</t>
   </si>
 </sst>
 </file>
@@ -488,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE94B248-0D51-45CC-A7FD-647A713645B2}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,11 +716,6 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -733,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3496ED4D-A2DB-4AD0-8403-2BDE515D8280}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/ModelResults.xlsx
+++ b/ModelResults.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindgp1\Desktop\UM Bootcamp\Module 20 - Final project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindgp1\Desktop\UM Bootcamp\Module 20 - Final project\Final-Project-Team-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C95C379-A1CD-4D99-9D64-F25CC7B6DDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15DB2BF-F65C-4C58-A292-DBDD40C04E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8925" yWindow="1950" windowWidth="28800" windowHeight="11385" xr2:uid="{061E510B-05AA-44E1-B87A-B493465EE388}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{061E510B-05AA-44E1-B87A-B493465EE388}"/>
   </bookViews>
   <sheets>
     <sheet name="Red Results" sheetId="1" r:id="rId1"/>
     <sheet name="Red Importance" sheetId="2" r:id="rId2"/>
     <sheet name="Red long data" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Red long data'!$A$1:$D$177</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="43">
   <si>
     <t>Model</t>
   </si>
@@ -524,19 +527,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE94B248-0D51-45CC-A7FD-647A713645B2}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -553,7 +556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -570,7 +573,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -587,7 +590,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -604,7 +607,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -621,7 +624,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -638,7 +641,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -655,7 +658,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -672,7 +675,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -689,7 +692,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -706,7 +709,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -723,7 +726,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -740,7 +743,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -757,7 +760,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -774,7 +777,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -791,7 +794,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -808,7 +811,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -825,7 +828,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -842,7 +845,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -859,7 +862,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -876,7 +879,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -893,7 +896,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -910,7 +913,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -927,7 +930,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -944,7 +947,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -961,7 +964,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -978,7 +981,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -995,7 +998,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -1539,7 +1542,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -1590,7 +1593,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -1921,26 +1924,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3496ED4D-A2DB-4AD0-8403-2BDE515D8280}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:W13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1948,28 +1950,25 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2018,14 +2017,8 @@
       <c r="W2" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2042,46 +2035,40 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>0.24958</v>
+        <v>0.169798</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.169798</v>
+        <v>0.30651499999999998</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3">
-        <v>0.30651499999999998</v>
+        <v>0.94278099999999998</v>
       </c>
       <c r="P3" t="s">
         <v>10</v>
       </c>
       <c r="Q3">
-        <v>0.94278099999999998</v>
+        <v>1.0725629999999999</v>
       </c>
       <c r="S3" t="s">
         <v>10</v>
       </c>
       <c r="T3">
-        <v>1.0725629999999999</v>
+        <v>0.98313799999999996</v>
       </c>
       <c r="V3" t="s">
         <v>10</v>
       </c>
       <c r="W3">
-        <v>0.98313799999999996</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z3">
         <v>0.23349900000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2095,49 +2082,43 @@
         <v>0.13608000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>0.13608000000000001</v>
+        <v>0.120064</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.120064</v>
+        <v>0.131908</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N4">
-        <v>0.131908</v>
+        <v>0.89859100000000003</v>
       </c>
       <c r="P4" t="s">
         <v>16</v>
       </c>
       <c r="Q4">
-        <v>0.89859100000000003</v>
+        <v>0.80804799999999999</v>
       </c>
       <c r="S4" t="s">
         <v>16</v>
       </c>
       <c r="T4">
-        <v>0.80804799999999999</v>
+        <v>0.47087000000000001</v>
       </c>
       <c r="V4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="W4">
-        <v>0.47087000000000001</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z4">
         <v>0.12825700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2154,46 +2135,40 @@
         <v>12</v>
       </c>
       <c r="H5">
-        <v>0.114116</v>
+        <v>0.112396</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.112396</v>
+        <v>0.12608</v>
       </c>
       <c r="M5" t="s">
         <v>12</v>
       </c>
       <c r="N5">
-        <v>0.12608</v>
+        <v>0.60283500000000001</v>
       </c>
       <c r="P5" t="s">
         <v>12</v>
       </c>
       <c r="Q5">
-        <v>0.60283500000000001</v>
+        <v>0.61590800000000001</v>
       </c>
       <c r="S5" t="s">
         <v>12</v>
       </c>
       <c r="T5">
-        <v>0.61590800000000001</v>
+        <v>0.28688999999999998</v>
       </c>
       <c r="V5" t="s">
         <v>12</v>
       </c>
       <c r="W5">
-        <v>0.28688999999999998</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5">
         <v>0.116748</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2207,49 +2182,43 @@
         <v>8.7731000000000003E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>8.7731000000000003E-2</v>
+        <v>9.2388999999999999E-2</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K6">
-        <v>9.2388999999999999E-2</v>
+        <v>0.122331</v>
       </c>
       <c r="M6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N6">
-        <v>0.122331</v>
+        <v>0.42757899999999999</v>
       </c>
       <c r="P6" t="s">
         <v>18</v>
       </c>
       <c r="Q6">
-        <v>0.42757899999999999</v>
+        <v>0.376058</v>
       </c>
       <c r="S6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T6">
-        <v>0.376058</v>
+        <v>2.1236000000000001E-2</v>
       </c>
       <c r="V6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="W6">
-        <v>2.1236000000000001E-2</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z6">
         <v>8.3079E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2263,49 +2232,43 @@
         <v>8.1757999999999997E-2</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>8.1757999999999997E-2</v>
+        <v>8.3002999999999993E-2</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>8.3002999999999993E-2</v>
+        <v>9.7373000000000001E-2</v>
       </c>
       <c r="M7" t="s">
         <v>20</v>
       </c>
       <c r="N7">
-        <v>9.7373000000000001E-2</v>
+        <v>9.1059000000000001E-2</v>
       </c>
       <c r="P7" t="s">
         <v>20</v>
       </c>
       <c r="Q7">
-        <v>9.1059000000000001E-2</v>
+        <v>0.178504</v>
       </c>
       <c r="S7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T7">
-        <v>0.178504</v>
+        <v>4.1799999999999997E-3</v>
       </c>
       <c r="V7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="W7">
-        <v>4.1799999999999997E-3</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7">
         <v>7.6443999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2319,49 +2282,43 @@
         <v>8.1021999999999997E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>8.1021999999999997E-2</v>
+        <v>7.9478999999999994E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>7.9478999999999994E-2</v>
+        <v>5.4740999999999998E-2</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N8">
-        <v>5.4740999999999998E-2</v>
+        <v>3.5186000000000002E-2</v>
       </c>
       <c r="P8" t="s">
         <v>19</v>
       </c>
       <c r="Q8">
-        <v>3.5186000000000002E-2</v>
+        <v>-4.9215000000000002E-2</v>
       </c>
       <c r="S8" t="s">
         <v>19</v>
       </c>
       <c r="T8">
-        <v>-4.9215000000000002E-2</v>
+        <v>-0.208731</v>
       </c>
       <c r="V8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="W8">
-        <v>-0.208731</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z8">
         <v>7.4452000000000004E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2375,49 +2332,43 @@
         <v>7.8950999999999993E-2</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9">
-        <v>7.8950999999999993E-2</v>
+        <v>7.5408000000000003E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>7.5408000000000003E-2</v>
+        <v>4.5010000000000001E-2</v>
       </c>
       <c r="M9" t="s">
         <v>17</v>
       </c>
       <c r="N9">
-        <v>4.5010000000000001E-2</v>
+        <v>-0.18878600000000001</v>
       </c>
       <c r="P9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q9">
-        <v>-0.18878600000000001</v>
+        <v>-0.28761700000000001</v>
       </c>
       <c r="S9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T9">
-        <v>-0.28761700000000001</v>
+        <v>-0.248779</v>
       </c>
       <c r="V9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="W9">
-        <v>-0.248779</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z9">
         <v>7.0033999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2431,49 +2382,43 @@
         <v>4.5753000000000002E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10">
-        <v>4.5753000000000002E-2</v>
+        <v>7.2150000000000006E-2</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K10">
-        <v>7.2150000000000006E-2</v>
+        <v>4.0503999999999998E-2</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
       </c>
       <c r="N10">
-        <v>4.0503999999999998E-2</v>
+        <v>-0.20217599999999999</v>
       </c>
       <c r="P10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10">
+        <v>-0.499886</v>
+      </c>
+      <c r="S10" t="s">
         <v>15</v>
       </c>
-      <c r="Q10">
-        <v>-0.20217599999999999</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="T10">
+        <v>-0.33257300000000001</v>
+      </c>
+      <c r="V10" t="s">
         <v>17</v>
       </c>
-      <c r="T10">
-        <v>-0.499886</v>
-      </c>
-      <c r="V10" t="s">
-        <v>15</v>
-      </c>
       <c r="W10">
-        <v>-0.33257300000000001</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z10">
         <v>6.7913000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2487,49 +2432,43 @@
         <v>4.5384000000000001E-2</v>
       </c>
       <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>7.1892999999999999E-2</v>
+      </c>
+      <c r="J11" t="s">
         <v>13</v>
       </c>
-      <c r="H11">
-        <v>4.5384000000000001E-2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
       <c r="K11">
-        <v>7.1892999999999999E-2</v>
+        <v>3.8263999999999999E-2</v>
       </c>
       <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>-0.46985100000000002</v>
+      </c>
+      <c r="P11" t="s">
         <v>13</v>
       </c>
-      <c r="N11">
-        <v>3.8263999999999999E-2</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11">
+        <v>-0.55536700000000006</v>
+      </c>
+      <c r="S11" t="s">
         <v>14</v>
       </c>
-      <c r="Q11">
-        <v>-0.46985100000000002</v>
-      </c>
-      <c r="S11" t="s">
-        <v>13</v>
-      </c>
       <c r="T11">
-        <v>-0.55536700000000006</v>
+        <v>-0.39666000000000001</v>
       </c>
       <c r="V11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="W11">
-        <v>-0.39666000000000001</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z11">
         <v>5.3655000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2543,49 +2482,43 @@
         <v>4.0392999999999998E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H12">
-        <v>4.0392999999999998E-2</v>
+        <v>6.2758999999999995E-2</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12">
-        <v>6.2758999999999995E-2</v>
+        <v>1.8796E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="N12">
-        <v>1.8796E-2</v>
+        <v>-0.49926900000000002</v>
       </c>
       <c r="P12" t="s">
         <v>11</v>
       </c>
       <c r="Q12">
-        <v>-0.49926900000000002</v>
+        <v>-0.57257599999999997</v>
       </c>
       <c r="S12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T12">
-        <v>-0.57257599999999997</v>
+        <v>-0.491394</v>
       </c>
       <c r="V12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W12">
-        <v>-0.491394</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z12">
         <v>4.9013000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2599,45 +2532,665 @@
         <v>3.9232000000000003E-2</v>
       </c>
       <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>6.0662000000000001E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>1.848E-2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>-0.76558499999999996</v>
+      </c>
+      <c r="P13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13">
+        <v>-0.60653800000000002</v>
+      </c>
+      <c r="S13" t="s">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>-0.60658599999999996</v>
+      </c>
+      <c r="V13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13">
+        <v>4.6905000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0.84246100000000002</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>0.24958</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0.169798</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>0.30651499999999998</v>
+      </c>
+      <c r="M19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>0.94278099999999998</v>
+      </c>
+      <c r="P19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19">
+        <v>1.0725629999999999</v>
+      </c>
+      <c r="S19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <v>0.98313799999999996</v>
+      </c>
+      <c r="V19" t="s">
+        <v>10</v>
+      </c>
+      <c r="W19">
+        <v>0.23349900000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>0.61840099999999998</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>0.13608000000000001</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>0.120064</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20">
+        <v>0.131908</v>
+      </c>
+      <c r="M20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20">
+        <v>0.89859100000000003</v>
+      </c>
+      <c r="P20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20">
+        <v>0.80804799999999999</v>
+      </c>
+      <c r="S20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T20">
+        <v>0.47087000000000001</v>
+      </c>
+      <c r="V20" t="s">
+        <v>11</v>
+      </c>
+      <c r="W20">
+        <v>0.12825700000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>0.53625900000000004</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>0.114116</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>0.112396</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <v>0.12608</v>
+      </c>
+      <c r="M21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21">
+        <v>0.60283500000000001</v>
+      </c>
+      <c r="P21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21">
+        <v>0.61590800000000001</v>
+      </c>
+      <c r="S21" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21">
+        <v>0.28688999999999998</v>
+      </c>
+      <c r="V21" t="s">
+        <v>12</v>
+      </c>
+      <c r="W21">
+        <v>0.116748</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>0.35641</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>8.7731000000000003E-2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>9.2388999999999999E-2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22">
+        <v>0.122331</v>
+      </c>
+      <c r="M22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22">
+        <v>0.42757899999999999</v>
+      </c>
+      <c r="P22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22">
+        <v>0.376058</v>
+      </c>
+      <c r="S22" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>2.1236000000000001E-2</v>
+      </c>
+      <c r="V22" t="s">
+        <v>15</v>
+      </c>
+      <c r="W22">
+        <v>8.3079E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>4.6746999999999997E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>8.1757999999999997E-2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>8.3002999999999993E-2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>9.7373000000000001E-2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>9.1059000000000001E-2</v>
+      </c>
+      <c r="P23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23">
+        <v>0.178504</v>
+      </c>
+      <c r="S23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T23">
+        <v>4.1799999999999997E-3</v>
+      </c>
+      <c r="V23" t="s">
+        <v>13</v>
+      </c>
+      <c r="W23">
+        <v>7.6443999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>2.807E-3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>8.1021999999999997E-2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>7.9478999999999994E-2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>5.4740999999999998E-2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24">
+        <v>3.5186000000000002E-2</v>
+      </c>
+      <c r="P24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24">
+        <v>-4.9215000000000002E-2</v>
+      </c>
+      <c r="S24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24">
+        <v>-0.208731</v>
+      </c>
+      <c r="V24" t="s">
+        <v>14</v>
+      </c>
+      <c r="W24">
+        <v>7.4452000000000004E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>-1.9941E-2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>7.8950999999999993E-2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>7.5408000000000003E-2</v>
+      </c>
+      <c r="J25" t="s">
         <v>17</v>
       </c>
-      <c r="H13">
+      <c r="K25">
+        <v>4.5010000000000001E-2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25">
+        <v>-0.18878600000000001</v>
+      </c>
+      <c r="P25" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q25">
+        <v>-0.28761700000000001</v>
+      </c>
+      <c r="S25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T25">
+        <v>-0.248779</v>
+      </c>
+      <c r="V25" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25">
+        <v>7.0033999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>-0.37052800000000002</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>4.5753000000000002E-2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <v>7.2150000000000006E-2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26">
+        <v>4.0503999999999998E-2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>-0.20217599999999999</v>
+      </c>
+      <c r="P26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26">
+        <v>-0.499886</v>
+      </c>
+      <c r="S26" t="s">
+        <v>15</v>
+      </c>
+      <c r="T26">
+        <v>-0.33257300000000001</v>
+      </c>
+      <c r="V26" t="s">
+        <v>17</v>
+      </c>
+      <c r="W26">
+        <v>6.7913000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>-0.392125</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>4.5384000000000001E-2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <v>7.1892999999999999E-2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27">
+        <v>3.8263999999999999E-2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27">
+        <v>-0.46985100000000002</v>
+      </c>
+      <c r="P27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27">
+        <v>-0.55536700000000006</v>
+      </c>
+      <c r="S27" t="s">
+        <v>14</v>
+      </c>
+      <c r="T27">
+        <v>-0.39666000000000001</v>
+      </c>
+      <c r="V27" t="s">
+        <v>19</v>
+      </c>
+      <c r="W27">
+        <v>5.3655000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>-0.465505</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>4.0392999999999998E-2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28">
+        <v>6.2758999999999995E-2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28">
+        <v>1.8796E-2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28">
+        <v>-0.49926900000000002</v>
+      </c>
+      <c r="P28" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28">
+        <v>-0.57257599999999997</v>
+      </c>
+      <c r="S28" t="s">
+        <v>17</v>
+      </c>
+      <c r="T28">
+        <v>-0.491394</v>
+      </c>
+      <c r="V28" t="s">
+        <v>18</v>
+      </c>
+      <c r="W28">
+        <v>4.9013000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>-0.58265199999999995</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
         <v>3.9232000000000003E-2</v>
       </c>
-      <c r="J13" t="s">
+      <c r="G29" t="s">
         <v>20</v>
       </c>
-      <c r="K13">
+      <c r="H29">
         <v>6.0662000000000001E-2</v>
       </c>
-      <c r="M13" t="s">
+      <c r="J29" t="s">
         <v>16</v>
       </c>
-      <c r="N13">
+      <c r="K29">
         <v>1.848E-2</v>
       </c>
-      <c r="P13" t="s">
+      <c r="M29" t="s">
         <v>13</v>
       </c>
-      <c r="Q13">
+      <c r="N29">
         <v>-0.76558499999999996</v>
       </c>
-      <c r="S13" t="s">
+      <c r="P29" t="s">
         <v>14</v>
       </c>
-      <c r="T13">
+      <c r="Q29">
         <v>-0.60653800000000002</v>
       </c>
-      <c r="V13" t="s">
+      <c r="S29" t="s">
         <v>11</v>
       </c>
-      <c r="W13">
+      <c r="T29">
         <v>-0.60658599999999996</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="V29" t="s">
         <v>20</v>
       </c>
-      <c r="Z13">
+      <c r="W29">
         <v>4.6905000000000002E-2</v>
       </c>
     </row>
@@ -2651,23 +3204,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206B6D77-D365-4184-843B-A9A60AEDF57E}">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123:G133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2681,7 +3235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2695,7 +3249,7 @@
         <v>0.24958</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2709,7 +3263,7 @@
         <v>0.13608000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2723,7 +3277,7 @@
         <v>0.114116</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2737,7 +3291,7 @@
         <v>8.7731000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2751,7 +3305,7 @@
         <v>8.1757999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2765,7 +3319,7 @@
         <v>8.1021999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2779,7 +3333,7 @@
         <v>7.8950999999999993E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -2793,7 +3347,7 @@
         <v>4.5753000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2807,7 +3361,7 @@
         <v>4.5384000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2821,7 +3375,7 @@
         <v>4.0392999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2835,7 +3389,7 @@
         <v>3.9232000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2849,7 +3403,7 @@
         <v>0.169798</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2863,7 +3417,7 @@
         <v>0.120064</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2877,7 +3431,7 @@
         <v>0.112396</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2891,7 +3445,7 @@
         <v>9.2388999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2905,7 +3459,7 @@
         <v>8.3002999999999993E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2919,7 +3473,7 @@
         <v>7.9478999999999994E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2933,7 +3487,7 @@
         <v>7.5408000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2947,7 +3501,7 @@
         <v>7.2150000000000006E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2961,7 +3515,7 @@
         <v>7.1892999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2975,7 +3529,7 @@
         <v>6.2758999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2989,7 +3543,7 @@
         <v>6.0662000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -3003,7 +3557,7 @@
         <v>0.30651499999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -3017,7 +3571,7 @@
         <v>0.131908</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -3031,7 +3585,7 @@
         <v>0.12608</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3045,7 +3599,7 @@
         <v>0.122331</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3059,7 +3613,7 @@
         <v>9.7373000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3073,7 +3627,7 @@
         <v>5.4740999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3087,7 +3641,7 @@
         <v>4.5010000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -3101,7 +3655,7 @@
         <v>4.0503999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3115,7 +3669,7 @@
         <v>3.8263999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -3129,7 +3683,7 @@
         <v>1.8796E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -3143,7 +3697,7 @@
         <v>1.848E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3157,7 +3711,7 @@
         <v>0.23349900000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -3171,7 +3725,7 @@
         <v>0.12825700000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -3185,7 +3739,7 @@
         <v>0.116748</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3199,7 +3753,7 @@
         <v>8.3079E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3213,7 +3767,7 @@
         <v>7.6443999999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3227,7 +3781,7 @@
         <v>7.4452000000000004E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -3241,7 +3795,7 @@
         <v>7.0033999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -3255,7 +3809,7 @@
         <v>6.7913000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -3269,7 +3823,7 @@
         <v>5.3655000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -3283,7 +3837,7 @@
         <v>4.9013000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -3297,7 +3851,7 @@
         <v>4.6905000000000002E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -3311,7 +3865,7 @@
         <v>0.84246100000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -3325,7 +3879,7 @@
         <v>0.61840099999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -3339,7 +3893,7 @@
         <v>0.53625900000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -3353,7 +3907,7 @@
         <v>0.35641</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -3367,7 +3921,7 @@
         <v>4.6746999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -3381,7 +3935,7 @@
         <v>2.807E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -3395,7 +3949,7 @@
         <v>-1.9941E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -3409,7 +3963,7 @@
         <v>-0.37052800000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -3423,7 +3977,7 @@
         <v>-0.392125</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -3437,7 +3991,7 @@
         <v>-0.465505</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -3451,7 +4005,7 @@
         <v>-0.58265199999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -3465,7 +4019,7 @@
         <v>0.94278099999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -3479,7 +4033,7 @@
         <v>0.89859100000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -3493,7 +4047,7 @@
         <v>0.60283500000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -3507,7 +4061,7 @@
         <v>0.42757899999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -3521,7 +4075,7 @@
         <v>9.1059000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -3535,7 +4089,7 @@
         <v>3.5186000000000002E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -3549,7 +4103,7 @@
         <v>-0.18878600000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -3563,7 +4117,7 @@
         <v>-0.20217599999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -3577,7 +4131,7 @@
         <v>-0.46985100000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -3591,7 +4145,7 @@
         <v>-0.49926900000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -3605,7 +4159,7 @@
         <v>-0.76558499999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -3619,7 +4173,7 @@
         <v>1.0725629999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -3633,7 +4187,7 @@
         <v>0.80804799999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -3647,7 +4201,7 @@
         <v>0.61590800000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -3661,7 +4215,7 @@
         <v>0.376058</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -3675,7 +4229,7 @@
         <v>0.178504</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -3689,7 +4243,7 @@
         <v>-4.9215000000000002E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -3703,7 +4257,7 @@
         <v>-0.28761700000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -3717,7 +4271,7 @@
         <v>-0.499886</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -3731,7 +4285,7 @@
         <v>-0.55536700000000006</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -3745,7 +4299,7 @@
         <v>-0.57257599999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -3759,7 +4313,7 @@
         <v>-0.60653800000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -3773,7 +4327,7 @@
         <v>0.98313799999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -3787,7 +4341,7 @@
         <v>0.47087000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>38</v>
       </c>
@@ -3801,7 +4355,7 @@
         <v>0.28688999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>38</v>
       </c>
@@ -3815,7 +4369,7 @@
         <v>2.1236000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -3829,7 +4383,7 @@
         <v>4.1799999999999997E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -3843,7 +4397,7 @@
         <v>-0.208731</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -3857,7 +4411,7 @@
         <v>-0.248779</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -3871,7 +4425,7 @@
         <v>-0.33257300000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -3885,7 +4439,7 @@
         <v>-0.39666000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -3899,7 +4453,7 @@
         <v>-0.491394</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -3913,7 +4467,7 @@
         <v>-0.60658599999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -3927,7 +4481,7 @@
         <v>0.21141199999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -3941,7 +4495,7 @@
         <v>9.4541E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>39</v>
       </c>
@@ -3955,7 +4509,7 @@
         <v>9.3521999999999994E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>39</v>
       </c>
@@ -3969,7 +4523,7 @@
         <v>8.7650000000000006E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>39</v>
       </c>
@@ -3983,7 +4537,7 @@
         <v>8.4501999999999994E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>39</v>
       </c>
@@ -3997,7 +4551,7 @@
         <v>7.9255999999999993E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -4011,7 +4565,7 @@
         <v>7.6851000000000003E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>39</v>
       </c>
@@ -4025,7 +4579,7 @@
         <v>7.5369000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>39</v>
       </c>
@@ -4039,7 +4593,7 @@
         <v>6.9522E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>39</v>
       </c>
@@ -4053,7 +4607,7 @@
         <v>6.7946999999999994E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>39</v>
       </c>
@@ -4067,7 +4621,7 @@
         <v>5.9429000000000003E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>39</v>
       </c>
@@ -4081,7 +4635,7 @@
         <v>0.15568499999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>39</v>
       </c>
@@ -4095,7 +4649,7 @@
         <v>0.12256</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -4109,7 +4663,7 @@
         <v>8.9787000000000006E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -4123,7 +4677,7 @@
         <v>8.6736999999999995E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -4137,7 +4691,7 @@
         <v>8.5781999999999997E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>39</v>
       </c>
@@ -4151,7 +4705,7 @@
         <v>8.3496000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>39</v>
       </c>
@@ -4165,7 +4719,7 @@
         <v>8.2224000000000005E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>39</v>
       </c>
@@ -4179,7 +4733,7 @@
         <v>8.1998000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>39</v>
       </c>
@@ -4193,7 +4747,7 @@
         <v>7.7230999999999994E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>39</v>
       </c>
@@ -4207,7 +4761,7 @@
         <v>6.8512000000000003E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -4221,7 +4775,7 @@
         <v>6.5989999999999993E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>39</v>
       </c>
@@ -4235,7 +4789,7 @@
         <v>0.45252500000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>39</v>
       </c>
@@ -4249,7 +4803,7 @@
         <v>0.11920600000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>39</v>
       </c>
@@ -4263,7 +4817,7 @@
         <v>8.3357000000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>39</v>
       </c>
@@ -4277,7 +4831,7 @@
         <v>7.9518000000000005E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>39</v>
       </c>
@@ -4291,7 +4845,7 @@
         <v>5.9501999999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>39</v>
       </c>
@@ -4305,7 +4859,7 @@
         <v>5.7623000000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>39</v>
       </c>
@@ -4319,7 +4873,7 @@
         <v>4.6273000000000002E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>39</v>
       </c>
@@ -4333,7 +4887,7 @@
         <v>3.6663000000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>39</v>
       </c>
@@ -4347,7 +4901,7 @@
         <v>2.4920000000000001E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -4361,7 +4915,7 @@
         <v>2.1687999999999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>39</v>
       </c>
@@ -4375,7 +4929,7 @@
         <v>1.8724999999999999E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>39</v>
       </c>
@@ -4386,10 +4940,10 @@
         <v>10</v>
       </c>
       <c r="D123">
-        <v>0.23349900000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.181254</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>39</v>
       </c>
@@ -4400,10 +4954,10 @@
         <v>11</v>
       </c>
       <c r="D124">
-        <v>0.12825700000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.0231000000000006E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -4414,10 +4968,10 @@
         <v>12</v>
       </c>
       <c r="D125">
-        <v>0.116748</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.9082999999999997E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>39</v>
       </c>
@@ -4428,10 +4982,10 @@
         <v>15</v>
       </c>
       <c r="D126">
-        <v>8.3079E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.6328999999999999E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>39</v>
       </c>
@@ -4442,10 +4996,10 @@
         <v>13</v>
       </c>
       <c r="D127">
-        <v>7.6443999999999998E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.126584</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>39</v>
       </c>
@@ -4456,10 +5010,10 @@
         <v>14</v>
       </c>
       <c r="D128">
-        <v>7.4452000000000004E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.0263000000000001E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>39</v>
       </c>
@@ -4470,10 +5024,10 @@
         <v>16</v>
       </c>
       <c r="D129">
-        <v>7.0033999999999999E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.4320000000000002E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>39</v>
       </c>
@@ -4484,10 +5038,10 @@
         <v>17</v>
       </c>
       <c r="D130">
-        <v>6.7913000000000001E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.3287999999999996E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>39</v>
       </c>
@@ -4498,10 +5052,10 @@
         <v>19</v>
       </c>
       <c r="D131">
-        <v>5.3655000000000001E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.4226E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>39</v>
       </c>
@@ -4512,10 +5066,10 @@
         <v>18</v>
       </c>
       <c r="D132">
-        <v>4.9013000000000001E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.6026000000000005E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>39</v>
       </c>
@@ -4526,10 +5080,10 @@
         <v>20</v>
       </c>
       <c r="D133">
-        <v>4.6905000000000002E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.8395000000000006E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>39</v>
       </c>
@@ -4543,7 +5097,7 @@
         <v>1.222858</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>39</v>
       </c>
@@ -4557,7 +5111,7 @@
         <v>0.40474300000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>39</v>
       </c>
@@ -4571,7 +5125,7 @@
         <v>0.37234</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>39</v>
       </c>
@@ -4585,7 +5139,7 @@
         <v>0.354078</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>39</v>
       </c>
@@ -4599,7 +5153,7 @@
         <v>0.228015</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>39</v>
       </c>
@@ -4613,7 +5167,7 @@
         <v>0.16364400000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -4627,7 +5181,7 @@
         <v>-3.3041000000000001E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>39</v>
       </c>
@@ -4641,7 +5195,7 @@
         <v>-9.9051E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -4655,7 +5209,7 @@
         <v>-0.265733</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -4669,7 +5223,7 @@
         <v>-0.418186</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>39</v>
       </c>
@@ -4683,7 +5237,7 @@
         <v>-1.6097760000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>39</v>
       </c>
@@ -4697,7 +5251,7 @@
         <v>1.3820429999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -4711,7 +5265,7 @@
         <v>0.40751500000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -4725,7 +5279,7 @@
         <v>0.38557799999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -4739,7 +5293,7 @@
         <v>0.353767</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>39</v>
       </c>
@@ -4753,7 +5307,7 @@
         <v>0.20135800000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>39</v>
       </c>
@@ -4767,7 +5321,7 @@
         <v>0.105409</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>39</v>
       </c>
@@ -4781,7 +5335,7 @@
         <v>-1.1091999999999999E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -4795,7 +5349,7 @@
         <v>-0.115879</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>39</v>
       </c>
@@ -4809,7 +5363,7 @@
         <v>-0.18598500000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>39</v>
       </c>
@@ -4823,7 +5377,7 @@
         <v>-0.57920700000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>39</v>
       </c>
@@ -4837,7 +5391,7 @@
         <v>-1.7384809999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>39</v>
       </c>
@@ -4851,7 +5405,7 @@
         <v>1.47746</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>39</v>
       </c>
@@ -4865,7 +5419,7 @@
         <v>0.48807</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>39</v>
       </c>
@@ -4879,7 +5433,7 @@
         <v>0.43262699999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>39</v>
       </c>
@@ -4893,7 +5447,7 @@
         <v>0.35670099999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>39</v>
       </c>
@@ -4907,7 +5461,7 @@
         <v>0.22977800000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>39</v>
       </c>
@@ -4921,7 +5475,7 @@
         <v>0.15362300000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>39</v>
       </c>
@@ -4935,7 +5489,7 @@
         <v>-1.6237999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>39</v>
       </c>
@@ -4949,7 +5503,7 @@
         <v>-0.135349</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>39</v>
       </c>
@@ -4963,7 +5517,7 @@
         <v>-0.16150500000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>39</v>
       </c>
@@ -4977,7 +5531,7 @@
         <v>-0.61104499999999995</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>39</v>
       </c>
@@ -4991,7 +5545,7 @@
         <v>-1.8922270000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>39</v>
       </c>
@@ -5005,7 +5559,7 @@
         <v>1.299026</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>39</v>
       </c>
@@ -5019,7 +5573,7 @@
         <v>0.38076300000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>39</v>
       </c>
@@ -5033,7 +5587,7 @@
         <v>0.344273</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>39</v>
       </c>
@@ -5047,7 +5601,7 @@
         <v>0.23175599999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>39</v>
       </c>
@@ -5061,7 +5615,7 @@
         <v>0.127689</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>39</v>
       </c>
@@ -5075,7 +5629,7 @@
         <v>2.9291999999999999E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>39</v>
       </c>
@@ -5089,7 +5643,7 @@
         <v>1.6348999999999999E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>39</v>
       </c>
@@ -5103,7 +5657,7 @@
         <v>-0.23869199999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>39</v>
       </c>
@@ -5117,7 +5671,7 @@
         <v>-0.37354199999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>39</v>
       </c>
@@ -5131,7 +5685,7 @@
         <v>-0.69352100000000005</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>39</v>
       </c>
@@ -5146,6 +5700,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D177" xr:uid="{206B6D77-D365-4184-843B-A9A60AEDF57E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ModelResults.xlsx
+++ b/ModelResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindgp1\Desktop\UM Bootcamp\Module 20 - Final project\Final-Project-Team-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15DB2BF-F65C-4C58-A292-DBDD40C04E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B0FF8A-09E6-440E-976F-363A0CC1E2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{061E510B-05AA-44E1-B87A-B493465EE388}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{061E510B-05AA-44E1-B87A-B493465EE388}"/>
   </bookViews>
   <sheets>
     <sheet name="Red Results" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="44">
   <si>
     <t>Model</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Easy Ensemble Ada Boost Classifier</t>
+  </si>
+  <si>
+    <t>ImportanceAbs</t>
   </si>
 </sst>
 </file>
@@ -531,15 +534,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -556,7 +559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -573,7 +576,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -590,7 +593,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -607,7 +610,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -624,7 +627,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -641,7 +644,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -658,7 +661,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -675,7 +678,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -692,7 +695,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -709,7 +712,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -726,7 +729,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -743,7 +746,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -760,7 +763,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -777,7 +780,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -794,7 +797,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -811,7 +814,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -828,7 +831,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -845,7 +848,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -862,7 +865,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -879,7 +882,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -896,7 +899,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -913,7 +916,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -930,7 +933,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -947,7 +950,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -964,7 +967,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -981,7 +984,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -1780,7 +1783,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -1899,7 +1902,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -1930,19 +1933,19 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1968,7 +1971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>0.23349900000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>0.12825700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>0.116748</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>8.3079E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2268,7 +2271,7 @@
         <v>7.6443999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2318,7 +2321,7 @@
         <v>7.4452000000000004E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>7.0033999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>6.7913000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>5.3655000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>4.9013000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>4.6905000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>0.23349900000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>0.12825700000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>0.116748</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2844,7 +2847,7 @@
         <v>8.3079E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>7.6443999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>7.4452000000000004E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>7.0033999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>6.7913000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -3094,7 +3097,7 @@
         <v>5.3655000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>4.9013000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3202,26 +3205,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206B6D77-D365-4184-843B-A9A60AEDF57E}">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123:G133"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3234,8 +3237,11 @@
       <c r="D1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -3248,8 +3254,12 @@
       <c r="D2">
         <v>0.24958</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f>ABS(D2)</f>
+        <v>0.24958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -3262,8 +3272,12 @@
       <c r="D3">
         <v>0.13608000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">ABS(D3)</f>
+        <v>0.13608000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -3276,8 +3290,12 @@
       <c r="D4">
         <v>0.114116</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.114116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3290,8 +3308,12 @@
       <c r="D5">
         <v>8.7731000000000003E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>8.7731000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -3304,8 +3326,12 @@
       <c r="D6">
         <v>8.1757999999999997E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8.1757999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -3318,8 +3344,12 @@
       <c r="D7">
         <v>8.1021999999999997E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>8.1021999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3332,8 +3362,12 @@
       <c r="D8">
         <v>7.8950999999999993E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>7.8950999999999993E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -3346,8 +3380,12 @@
       <c r="D9">
         <v>4.5753000000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4.5753000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -3360,8 +3398,12 @@
       <c r="D10">
         <v>4.5384000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4.5384000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -3374,8 +3416,12 @@
       <c r="D11">
         <v>4.0392999999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4.0392999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -3388,8 +3434,12 @@
       <c r="D12">
         <v>3.9232000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.9232000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3402,8 +3452,12 @@
       <c r="D13">
         <v>0.169798</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.169798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -3416,8 +3470,12 @@
       <c r="D14">
         <v>0.120064</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.120064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -3430,8 +3488,12 @@
       <c r="D15">
         <v>0.112396</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.112396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -3444,8 +3506,12 @@
       <c r="D16">
         <v>9.2388999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>9.2388999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -3458,8 +3524,12 @@
       <c r="D17">
         <v>8.3002999999999993E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>8.3002999999999993E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -3472,8 +3542,12 @@
       <c r="D18">
         <v>7.9478999999999994E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>7.9478999999999994E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3486,8 +3560,12 @@
       <c r="D19">
         <v>7.5408000000000003E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>7.5408000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -3500,8 +3578,12 @@
       <c r="D20">
         <v>7.2150000000000006E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>7.2150000000000006E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -3514,8 +3596,12 @@
       <c r="D21">
         <v>7.1892999999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>7.1892999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -3528,8 +3614,12 @@
       <c r="D22">
         <v>6.2758999999999995E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>6.2758999999999995E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -3542,8 +3632,12 @@
       <c r="D23">
         <v>6.0662000000000001E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>6.0662000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -3556,8 +3650,12 @@
       <c r="D24">
         <v>0.30651499999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.30651499999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -3570,8 +3668,12 @@
       <c r="D25">
         <v>0.131908</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.131908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -3584,8 +3686,12 @@
       <c r="D26">
         <v>0.12608</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.12608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3598,8 +3704,12 @@
       <c r="D27">
         <v>0.122331</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.122331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3612,8 +3722,12 @@
       <c r="D28">
         <v>9.7373000000000001E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>9.7373000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3626,8 +3740,12 @@
       <c r="D29">
         <v>5.4740999999999998E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>5.4740999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3640,8 +3758,12 @@
       <c r="D30">
         <v>4.5010000000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>4.5010000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -3654,8 +3776,12 @@
       <c r="D31">
         <v>4.0503999999999998E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>4.0503999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3668,8 +3794,12 @@
       <c r="D32">
         <v>3.8263999999999999E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>3.8263999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -3682,8 +3812,12 @@
       <c r="D33">
         <v>1.8796E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1.8796E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -3696,8 +3830,12 @@
       <c r="D34">
         <v>1.848E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1.848E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3710,8 +3848,12 @@
       <c r="D35">
         <v>0.23349900000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.23349900000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -3724,8 +3866,12 @@
       <c r="D36">
         <v>0.12825700000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.12825700000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -3738,8 +3884,12 @@
       <c r="D37">
         <v>0.116748</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.116748</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3752,8 +3902,12 @@
       <c r="D38">
         <v>8.3079E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>8.3079E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3766,8 +3920,12 @@
       <c r="D39">
         <v>7.6443999999999998E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>7.6443999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3780,8 +3938,12 @@
       <c r="D40">
         <v>7.4452000000000004E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>7.4452000000000004E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -3794,8 +3956,12 @@
       <c r="D41">
         <v>7.0033999999999999E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>7.0033999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -3808,8 +3974,12 @@
       <c r="D42">
         <v>6.7913000000000001E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>6.7913000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -3822,8 +3992,12 @@
       <c r="D43">
         <v>5.3655000000000001E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>5.3655000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -3836,8 +4010,12 @@
       <c r="D44">
         <v>4.9013000000000001E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>4.9013000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -3850,8 +4028,12 @@
       <c r="D45">
         <v>4.6905000000000002E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>4.6905000000000002E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -3864,8 +4046,12 @@
       <c r="D46">
         <v>0.84246100000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0.84246100000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -3878,8 +4064,12 @@
       <c r="D47">
         <v>0.61840099999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0.61840099999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -3892,8 +4082,12 @@
       <c r="D48">
         <v>0.53625900000000004</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0.53625900000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -3906,8 +4100,12 @@
       <c r="D49">
         <v>0.35641</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0.35641</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -3920,8 +4118,12 @@
       <c r="D50">
         <v>4.6746999999999997E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>4.6746999999999997E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -3934,8 +4136,12 @@
       <c r="D51">
         <v>2.807E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>2.807E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -3948,8 +4154,12 @@
       <c r="D52">
         <v>-1.9941E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1.9941E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -3962,8 +4172,12 @@
       <c r="D53">
         <v>-0.37052800000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>0.37052800000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -3976,8 +4190,12 @@
       <c r="D54">
         <v>-0.392125</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>0.392125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -3990,8 +4208,12 @@
       <c r="D55">
         <v>-0.465505</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0.465505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -4004,8 +4226,12 @@
       <c r="D56">
         <v>-0.58265199999999995</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0.58265199999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -4018,8 +4244,12 @@
       <c r="D57">
         <v>0.94278099999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>0.94278099999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -4032,8 +4262,12 @@
       <c r="D58">
         <v>0.89859100000000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0.89859100000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -4046,8 +4280,12 @@
       <c r="D59">
         <v>0.60283500000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>0.60283500000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -4060,8 +4298,12 @@
       <c r="D60">
         <v>0.42757899999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>0.42757899999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -4074,8 +4316,12 @@
       <c r="D61">
         <v>9.1059000000000001E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>9.1059000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -4088,8 +4334,12 @@
       <c r="D62">
         <v>3.5186000000000002E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>3.5186000000000002E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -4102,8 +4352,12 @@
       <c r="D63">
         <v>-0.18878600000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>0.18878600000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -4116,8 +4370,12 @@
       <c r="D64">
         <v>-0.20217599999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>0.20217599999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -4130,8 +4388,12 @@
       <c r="D65">
         <v>-0.46985100000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>0.46985100000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -4144,8 +4406,12 @@
       <c r="D66">
         <v>-0.49926900000000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>0.49926900000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -4158,8 +4424,12 @@
       <c r="D67">
         <v>-0.76558499999999996</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="1">ABS(D67)</f>
+        <v>0.76558499999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -4172,8 +4442,12 @@
       <c r="D68">
         <v>1.0725629999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>1.0725629999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -4186,8 +4460,12 @@
       <c r="D69">
         <v>0.80804799999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>0.80804799999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -4200,8 +4478,12 @@
       <c r="D70">
         <v>0.61590800000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>0.61590800000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -4214,8 +4496,12 @@
       <c r="D71">
         <v>0.376058</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>0.376058</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -4228,8 +4514,12 @@
       <c r="D72">
         <v>0.178504</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>0.178504</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -4242,8 +4532,12 @@
       <c r="D73">
         <v>-4.9215000000000002E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>4.9215000000000002E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -4256,8 +4550,12 @@
       <c r="D74">
         <v>-0.28761700000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>0.28761700000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -4270,8 +4568,12 @@
       <c r="D75">
         <v>-0.499886</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>0.499886</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -4284,8 +4586,12 @@
       <c r="D76">
         <v>-0.55536700000000006</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>0.55536700000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -4298,8 +4604,12 @@
       <c r="D77">
         <v>-0.57257599999999997</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>0.57257599999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -4312,8 +4622,12 @@
       <c r="D78">
         <v>-0.60653800000000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>0.60653800000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -4326,8 +4640,12 @@
       <c r="D79">
         <v>0.98313799999999996</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>0.98313799999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -4340,8 +4658,12 @@
       <c r="D80">
         <v>0.47087000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>0.47087000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>38</v>
       </c>
@@ -4354,8 +4676,12 @@
       <c r="D81">
         <v>0.28688999999999998</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>0.28688999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>38</v>
       </c>
@@ -4368,8 +4694,12 @@
       <c r="D82">
         <v>2.1236000000000001E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>2.1236000000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -4382,8 +4712,12 @@
       <c r="D83">
         <v>4.1799999999999997E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>4.1799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -4396,8 +4730,12 @@
       <c r="D84">
         <v>-0.208731</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>0.208731</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -4410,8 +4748,12 @@
       <c r="D85">
         <v>-0.248779</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>0.248779</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -4424,8 +4766,12 @@
       <c r="D86">
         <v>-0.33257300000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>0.33257300000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -4438,8 +4784,12 @@
       <c r="D87">
         <v>-0.39666000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>0.39666000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -4452,8 +4802,12 @@
       <c r="D88">
         <v>-0.491394</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>0.491394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -4466,8 +4820,12 @@
       <c r="D89">
         <v>-0.60658599999999996</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>0.60658599999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -4480,8 +4838,12 @@
       <c r="D90">
         <v>0.21141199999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>0.21141199999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -4494,8 +4856,12 @@
       <c r="D91">
         <v>9.4541E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>9.4541E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>39</v>
       </c>
@@ -4508,8 +4874,12 @@
       <c r="D92">
         <v>9.3521999999999994E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>9.3521999999999994E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>39</v>
       </c>
@@ -4522,8 +4892,12 @@
       <c r="D93">
         <v>8.7650000000000006E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>8.7650000000000006E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>39</v>
       </c>
@@ -4536,8 +4910,12 @@
       <c r="D94">
         <v>8.4501999999999994E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>8.4501999999999994E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>39</v>
       </c>
@@ -4550,8 +4928,12 @@
       <c r="D95">
         <v>7.9255999999999993E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>7.9255999999999993E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -4564,8 +4946,12 @@
       <c r="D96">
         <v>7.6851000000000003E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>7.6851000000000003E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>39</v>
       </c>
@@ -4578,8 +4964,12 @@
       <c r="D97">
         <v>7.5369000000000005E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>7.5369000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>39</v>
       </c>
@@ -4592,8 +4982,12 @@
       <c r="D98">
         <v>6.9522E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>6.9522E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>39</v>
       </c>
@@ -4606,8 +5000,12 @@
       <c r="D99">
         <v>6.7946999999999994E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>6.7946999999999994E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>39</v>
       </c>
@@ -4620,8 +5018,12 @@
       <c r="D100">
         <v>5.9429000000000003E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>5.9429000000000003E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>39</v>
       </c>
@@ -4634,8 +5036,12 @@
       <c r="D101">
         <v>0.15568499999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>0.15568499999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>39</v>
       </c>
@@ -4648,8 +5054,12 @@
       <c r="D102">
         <v>0.12256</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>0.12256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -4662,8 +5072,12 @@
       <c r="D103">
         <v>8.9787000000000006E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>8.9787000000000006E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -4676,8 +5090,12 @@
       <c r="D104">
         <v>8.6736999999999995E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>8.6736999999999995E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -4690,8 +5108,12 @@
       <c r="D105">
         <v>8.5781999999999997E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>8.5781999999999997E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>39</v>
       </c>
@@ -4704,8 +5126,12 @@
       <c r="D106">
         <v>8.3496000000000001E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>8.3496000000000001E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>39</v>
       </c>
@@ -4718,8 +5144,12 @@
       <c r="D107">
         <v>8.2224000000000005E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>8.2224000000000005E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>39</v>
       </c>
@@ -4732,8 +5162,12 @@
       <c r="D108">
         <v>8.1998000000000001E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>8.1998000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>39</v>
       </c>
@@ -4746,8 +5180,12 @@
       <c r="D109">
         <v>7.7230999999999994E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>7.7230999999999994E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>39</v>
       </c>
@@ -4760,8 +5198,12 @@
       <c r="D110">
         <v>6.8512000000000003E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>6.8512000000000003E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -4774,8 +5216,12 @@
       <c r="D111">
         <v>6.5989999999999993E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>6.5989999999999993E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>39</v>
       </c>
@@ -4788,8 +5234,12 @@
       <c r="D112">
         <v>0.45252500000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>0.45252500000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>39</v>
       </c>
@@ -4802,8 +5252,12 @@
       <c r="D113">
         <v>0.11920600000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>0.11920600000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>39</v>
       </c>
@@ -4816,8 +5270,12 @@
       <c r="D114">
         <v>8.3357000000000001E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>8.3357000000000001E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>39</v>
       </c>
@@ -4830,8 +5288,12 @@
       <c r="D115">
         <v>7.9518000000000005E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>7.9518000000000005E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>39</v>
       </c>
@@ -4844,8 +5306,12 @@
       <c r="D116">
         <v>5.9501999999999999E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>5.9501999999999999E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>39</v>
       </c>
@@ -4858,8 +5324,12 @@
       <c r="D117">
         <v>5.7623000000000001E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>5.7623000000000001E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>39</v>
       </c>
@@ -4872,8 +5342,12 @@
       <c r="D118">
         <v>4.6273000000000002E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>4.6273000000000002E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>39</v>
       </c>
@@ -4886,8 +5360,12 @@
       <c r="D119">
         <v>3.6663000000000001E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>3.6663000000000001E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>39</v>
       </c>
@@ -4900,8 +5378,12 @@
       <c r="D120">
         <v>2.4920000000000001E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>2.4920000000000001E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -4914,8 +5396,12 @@
       <c r="D121">
         <v>2.1687999999999999E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>2.1687999999999999E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>39</v>
       </c>
@@ -4928,8 +5414,12 @@
       <c r="D122">
         <v>1.8724999999999999E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>1.8724999999999999E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>39</v>
       </c>
@@ -4942,8 +5432,12 @@
       <c r="D123">
         <v>0.181254</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>0.181254</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>39</v>
       </c>
@@ -4956,8 +5450,12 @@
       <c r="D124">
         <v>9.0231000000000006E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>9.0231000000000006E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -4970,8 +5468,12 @@
       <c r="D125">
         <v>5.9082999999999997E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>5.9082999999999997E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>39</v>
       </c>
@@ -4984,8 +5486,12 @@
       <c r="D126">
         <v>6.6328999999999999E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>6.6328999999999999E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>39</v>
       </c>
@@ -4998,8 +5504,12 @@
       <c r="D127">
         <v>0.126584</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>0.126584</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>39</v>
       </c>
@@ -5012,8 +5522,12 @@
       <c r="D128">
         <v>8.0263000000000001E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>8.0263000000000001E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>39</v>
       </c>
@@ -5026,8 +5540,12 @@
       <c r="D129">
         <v>6.4320000000000002E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>6.4320000000000002E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>39</v>
       </c>
@@ -5040,8 +5558,12 @@
       <c r="D130">
         <v>9.3287999999999996E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>9.3287999999999996E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>39</v>
       </c>
@@ -5054,8 +5576,12 @@
       <c r="D131">
         <v>7.4226E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131">
+        <f t="shared" ref="E131:E177" si="2">ABS(D131)</f>
+        <v>7.4226E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>39</v>
       </c>
@@ -5068,8 +5594,12 @@
       <c r="D132">
         <v>8.6026000000000005E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>8.6026000000000005E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>39</v>
       </c>
@@ -5082,8 +5612,12 @@
       <c r="D133">
         <v>7.8395000000000006E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133">
+        <f t="shared" si="2"/>
+        <v>7.8395000000000006E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>39</v>
       </c>
@@ -5096,8 +5630,12 @@
       <c r="D134">
         <v>1.222858</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134">
+        <f t="shared" si="2"/>
+        <v>1.222858</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>39</v>
       </c>
@@ -5110,8 +5648,12 @@
       <c r="D135">
         <v>0.40474300000000002</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>0.40474300000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>39</v>
       </c>
@@ -5124,8 +5666,12 @@
       <c r="D136">
         <v>0.37234</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136">
+        <f t="shared" si="2"/>
+        <v>0.37234</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>39</v>
       </c>
@@ -5138,8 +5684,12 @@
       <c r="D137">
         <v>0.354078</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>0.354078</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>39</v>
       </c>
@@ -5152,8 +5702,12 @@
       <c r="D138">
         <v>0.228015</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138">
+        <f t="shared" si="2"/>
+        <v>0.228015</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>39</v>
       </c>
@@ -5166,8 +5720,12 @@
       <c r="D139">
         <v>0.16364400000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139">
+        <f t="shared" si="2"/>
+        <v>0.16364400000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -5180,8 +5738,12 @@
       <c r="D140">
         <v>-3.3041000000000001E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140">
+        <f t="shared" si="2"/>
+        <v>3.3041000000000001E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>39</v>
       </c>
@@ -5194,8 +5756,12 @@
       <c r="D141">
         <v>-9.9051E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141">
+        <f t="shared" si="2"/>
+        <v>9.9051E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -5208,8 +5774,12 @@
       <c r="D142">
         <v>-0.265733</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142">
+        <f t="shared" si="2"/>
+        <v>0.265733</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -5222,8 +5792,12 @@
       <c r="D143">
         <v>-0.418186</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143">
+        <f t="shared" si="2"/>
+        <v>0.418186</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>39</v>
       </c>
@@ -5236,8 +5810,12 @@
       <c r="D144">
         <v>-1.6097760000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144">
+        <f t="shared" si="2"/>
+        <v>1.6097760000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>39</v>
       </c>
@@ -5250,8 +5828,12 @@
       <c r="D145">
         <v>1.3820429999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145">
+        <f t="shared" si="2"/>
+        <v>1.3820429999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -5264,8 +5846,12 @@
       <c r="D146">
         <v>0.40751500000000002</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146">
+        <f t="shared" si="2"/>
+        <v>0.40751500000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -5278,8 +5864,12 @@
       <c r="D147">
         <v>0.38557799999999998</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147">
+        <f t="shared" si="2"/>
+        <v>0.38557799999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -5292,8 +5882,12 @@
       <c r="D148">
         <v>0.353767</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148">
+        <f t="shared" si="2"/>
+        <v>0.353767</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>39</v>
       </c>
@@ -5306,8 +5900,12 @@
       <c r="D149">
         <v>0.20135800000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149">
+        <f t="shared" si="2"/>
+        <v>0.20135800000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>39</v>
       </c>
@@ -5320,8 +5918,12 @@
       <c r="D150">
         <v>0.105409</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150">
+        <f t="shared" si="2"/>
+        <v>0.105409</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>39</v>
       </c>
@@ -5334,8 +5936,12 @@
       <c r="D151">
         <v>-1.1091999999999999E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151">
+        <f t="shared" si="2"/>
+        <v>1.1091999999999999E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -5348,8 +5954,12 @@
       <c r="D152">
         <v>-0.115879</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152">
+        <f t="shared" si="2"/>
+        <v>0.115879</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>39</v>
       </c>
@@ -5362,8 +5972,12 @@
       <c r="D153">
         <v>-0.18598500000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153">
+        <f t="shared" si="2"/>
+        <v>0.18598500000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>39</v>
       </c>
@@ -5376,8 +5990,12 @@
       <c r="D154">
         <v>-0.57920700000000003</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154">
+        <f t="shared" si="2"/>
+        <v>0.57920700000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>39</v>
       </c>
@@ -5390,8 +6008,12 @@
       <c r="D155">
         <v>-1.7384809999999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155">
+        <f t="shared" si="2"/>
+        <v>1.7384809999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>39</v>
       </c>
@@ -5404,8 +6026,12 @@
       <c r="D156">
         <v>1.47746</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156">
+        <f t="shared" si="2"/>
+        <v>1.47746</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>39</v>
       </c>
@@ -5418,8 +6044,12 @@
       <c r="D157">
         <v>0.48807</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157">
+        <f t="shared" si="2"/>
+        <v>0.48807</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>39</v>
       </c>
@@ -5432,8 +6062,12 @@
       <c r="D158">
         <v>0.43262699999999998</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158">
+        <f t="shared" si="2"/>
+        <v>0.43262699999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>39</v>
       </c>
@@ -5446,8 +6080,12 @@
       <c r="D159">
         <v>0.35670099999999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159">
+        <f t="shared" si="2"/>
+        <v>0.35670099999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>39</v>
       </c>
@@ -5460,8 +6098,12 @@
       <c r="D160">
         <v>0.22977800000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E160">
+        <f t="shared" si="2"/>
+        <v>0.22977800000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>39</v>
       </c>
@@ -5474,8 +6116,12 @@
       <c r="D161">
         <v>0.15362300000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161">
+        <f t="shared" si="2"/>
+        <v>0.15362300000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>39</v>
       </c>
@@ -5488,8 +6134,12 @@
       <c r="D162">
         <v>-1.6237999999999999E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162">
+        <f t="shared" si="2"/>
+        <v>1.6237999999999999E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>39</v>
       </c>
@@ -5502,8 +6152,12 @@
       <c r="D163">
         <v>-0.135349</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163">
+        <f t="shared" si="2"/>
+        <v>0.135349</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>39</v>
       </c>
@@ -5516,8 +6170,12 @@
       <c r="D164">
         <v>-0.16150500000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164">
+        <f t="shared" si="2"/>
+        <v>0.16150500000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>39</v>
       </c>
@@ -5530,8 +6188,12 @@
       <c r="D165">
         <v>-0.61104499999999995</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165">
+        <f t="shared" si="2"/>
+        <v>0.61104499999999995</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>39</v>
       </c>
@@ -5544,8 +6206,12 @@
       <c r="D166">
         <v>-1.8922270000000001</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166">
+        <f t="shared" si="2"/>
+        <v>1.8922270000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>39</v>
       </c>
@@ -5558,8 +6224,12 @@
       <c r="D167">
         <v>1.299026</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167">
+        <f t="shared" si="2"/>
+        <v>1.299026</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>39</v>
       </c>
@@ -5572,8 +6242,12 @@
       <c r="D168">
         <v>0.38076300000000002</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <f t="shared" si="2"/>
+        <v>0.38076300000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>39</v>
       </c>
@@ -5586,8 +6260,12 @@
       <c r="D169">
         <v>0.344273</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169">
+        <f t="shared" si="2"/>
+        <v>0.344273</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>39</v>
       </c>
@@ -5600,8 +6278,12 @@
       <c r="D170">
         <v>0.23175599999999999</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170">
+        <f t="shared" si="2"/>
+        <v>0.23175599999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>39</v>
       </c>
@@ -5614,8 +6296,12 @@
       <c r="D171">
         <v>0.127689</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171">
+        <f t="shared" si="2"/>
+        <v>0.127689</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>39</v>
       </c>
@@ -5628,8 +6314,12 @@
       <c r="D172">
         <v>2.9291999999999999E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172">
+        <f t="shared" si="2"/>
+        <v>2.9291999999999999E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>39</v>
       </c>
@@ -5642,8 +6332,12 @@
       <c r="D173">
         <v>1.6348999999999999E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173">
+        <f t="shared" si="2"/>
+        <v>1.6348999999999999E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>39</v>
       </c>
@@ -5656,8 +6350,12 @@
       <c r="D174">
         <v>-0.23869199999999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174">
+        <f t="shared" si="2"/>
+        <v>0.23869199999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>39</v>
       </c>
@@ -5670,8 +6368,12 @@
       <c r="D175">
         <v>-0.37354199999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175">
+        <f t="shared" si="2"/>
+        <v>0.37354199999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>39</v>
       </c>
@@ -5684,8 +6386,12 @@
       <c r="D176">
         <v>-0.69352100000000005</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E176">
+        <f t="shared" si="2"/>
+        <v>0.69352100000000005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>39</v>
       </c>
@@ -5698,9 +6404,12 @@
       <c r="D177">
         <v>-1.7035199999999999</v>
       </c>
+      <c r="E177">
+        <f t="shared" si="2"/>
+        <v>1.7035199999999999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D177" xr:uid="{206B6D77-D365-4184-843B-A9A60AEDF57E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>